--- a/InputFiles/C3DC/TC04_C3DC_phs000466_AnatomicSite-C649KidneyNOS.xlsx
+++ b/InputFiles/C3DC/TC04_C3DC_phs000466_AnatomicSite-C649KidneyNOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-11-27-2024/Commons_Automation/InputFiles/C3DC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617D7B95-6170-6346-BF96-3C9F4B550DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D929FE4D-8727-8F4C-96B5-DDEB93117C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35840" yWindow="-2240" windowWidth="30240" windowHeight="24500" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -183,6 +183,76 @@
 LIMIT 100;</t>
   </si>
   <si>
+    <t>SELECT DISTINCT
+    prt.participant_id AS "Participant Id",
+    trr.treatment_response_id AS "Treatment Response Id",
+    trr.response AS "Response",
+    CASE 
+        WHEN trr.age_at_response = -999 THEN 'Not Reported'
+        WHEN trr.age_at_response &gt;= 1000 THEN 
+            substr(trr.age_at_response, 1, length(trr.age_at_response) - 3) || ',' || substr(trr.age_at_response, -3)
+        ELSE 
+            trr.age_at_response 
+    END AS "Age at Response",
+    trr.response_category AS "Response Category",
+    trr.response_system AS "Response System",
+    std.dbgap_accession AS "dbGaP Accession"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_treatments trt ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.id = trr."participant.id"
+LEFT JOIN 
+    df_survival srv ON prt.id = srv."participant.id"
+LEFT JOIN 
+    df_reference_files rfs ON std.id = rfs."study.id"
+WHERE 
+    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS'
+ORDER BY 
+    prt.participant_id ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    prt.participant_id AS "Participant Id",
+    srv.survival_id AS "Survival Id",
+    srv.last_known_survival_status AS "Last Known Survival Status",
+    CASE 
+    WHEN srv.age_at_last_known_survival_status = -999 THEN 'Not Reported'
+    WHEN srv.age_at_last_known_survival_status &gt;= 1000 THEN 
+        substr(srv.age_at_last_known_survival_status, 1, length(srv.age_at_last_known_survival_status) - 3) || ',' || substr(srv.age_at_last_known_survival_status, -3)
+    ELSE 
+        srv.age_at_last_known_survival_status 
+END AS "Age at Last Known Survival Status",
+    srv.first_event AS "First Event",
+    srv.cause_of_death AS "Cause of Death",
+    std.dbgap_accession AS "dbGaP Accession"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_treatments trt ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.id = trr."participant.id"
+LEFT JOIN 
+    df_survival srv ON prt.id = srv."participant.id"
+LEFT JOIN 
+    df_reference_files rfs ON std.id = rfs."study.id"
+WHERE 
+    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS' AND srv.survival_id IS NOT NULL
+ORDER BY 
+    prt.participant_id ASC
+LIMIT 100;</t>
+  </si>
+  <si>
     <t>SELECT
     DISTINCT prt.participant_id AS "Participant Id",
     trt.treatment_id AS "Treatment Id",
@@ -201,7 +271,7 @@
         trt.age_at_treatment_end 
 END AS "Age at Treatment End",
     trt.treatment_type AS "Treatment Type",
-    CONCAT(REPLACE(trt.treatment_agent, ';', ', ')) AS "Treatment Agent",
+    REPLACE(trt.treatment_agent, ';', ', ') AS "Treatment Agent",
     std.dbgap_accession AS "dbGaP Accession"
 FROM 
     df_study std
@@ -223,84 +293,21 @@
     trt.treatment_id ASC
 LIMIT 100;</t>
   </si>
-  <si>
-    <t>SELECT DISTINCT
-    prt.participant_id AS "Participant Id",
-    trr.treatment_response_id AS "Treatment Response Id",
-    trr.response AS "Response",
-    CASE 
-        WHEN trr.age_at_response = -999 THEN 'Not Reported'
-        WHEN trr.age_at_response &gt;= 1000 THEN 
-            substr(trr.age_at_response, 1, length(trr.age_at_response) - 3) || ',' || substr(trr.age_at_response, -3)
-        ELSE 
-            trr.age_at_response 
-    END AS "Age at Response",
-    trr.response_category AS "Response Category",
-    trr.response_system AS "Response System",
-    std.dbgap_accession AS "dbGaP Accession"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
-WHERE 
-    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS'
-ORDER BY 
-    prt.participant_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    prt.participant_id AS "Participant Id",
-    srv.survival_id AS "Survival Id",
-    srv.last_known_survival_status AS "Last Known Survival Status",
-    CASE 
-    WHEN srv.age_at_last_known_survival_status = -999 THEN 'Not Reported'
-    WHEN srv.age_at_last_known_survival_status &gt;= 1000 THEN 
-        substr(srv.age_at_last_known_survival_status, 1, length(srv.age_at_last_known_survival_status) - 3) || ',' || substr(srv.age_at_last_known_survival_status, -3)
-    ELSE 
-        srv.age_at_last_known_survival_status 
-END AS "Age at Last Known Survival Status",
-    srv.first_event AS "First Event",
-    srv.cause_of_death AS "Cause of Death",
-    std.dbgap_accession AS "dbGaP Accession"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
-WHERE 
-    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS' AND srv.survival_id IS NOT NULL
-ORDER BY 
-    prt.participant_id ASC
-LIMIT 100;</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -353,11 +360,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -683,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -751,8 +761,8 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -761,7 +771,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -770,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -782,7 +792,7 @@
       <c r="C9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/InputFiles/C3DC/TC04_C3DC_phs000466_AnatomicSite-C649KidneyNOS.xlsx
+++ b/InputFiles/C3DC/TC04_C3DC_phs000466_AnatomicSite-C649KidneyNOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-11-27-2024/Commons_Automation/InputFiles/C3DC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/07-15-2025/Commons_Automation/InputFiles/C3DC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D929FE4D-8727-8F4C-96B5-DDEB93117C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADB6EEE-C845-4F4B-84DB-1D2F64366481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35840" yWindow="-2240" windowWidth="30240" windowHeight="24500" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -84,17 +84,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS';</t>
   </si>
@@ -105,17 +105,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS'</t>
   </si>
@@ -128,17 +128,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS'
 ORDER BY 
@@ -165,89 +165,19 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS' AND dgn.diagnosis_id IS NOT NULL
-ORDER BY 
-    prt.participant_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    prt.participant_id AS "Participant Id",
-    trr.treatment_response_id AS "Treatment Response Id",
-    trr.response AS "Response",
-    CASE 
-        WHEN trr.age_at_response = -999 THEN 'Not Reported'
-        WHEN trr.age_at_response &gt;= 1000 THEN 
-            substr(trr.age_at_response, 1, length(trr.age_at_response) - 3) || ',' || substr(trr.age_at_response, -3)
-        ELSE 
-            trr.age_at_response 
-    END AS "Age at Response",
-    trr.response_category AS "Response Category",
-    trr.response_system AS "Response System",
-    std.dbgap_accession AS "dbGaP Accession"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
-WHERE 
-    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS'
-ORDER BY 
-    prt.participant_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    prt.participant_id AS "Participant Id",
-    srv.survival_id AS "Survival Id",
-    srv.last_known_survival_status AS "Last Known Survival Status",
-    CASE 
-    WHEN srv.age_at_last_known_survival_status = -999 THEN 'Not Reported'
-    WHEN srv.age_at_last_known_survival_status &gt;= 1000 THEN 
-        substr(srv.age_at_last_known_survival_status, 1, length(srv.age_at_last_known_survival_status) - 3) || ',' || substr(srv.age_at_last_known_survival_status, -3)
-    ELSE 
-        srv.age_at_last_known_survival_status 
-END AS "Age at Last Known Survival Status",
-    srv.first_event AS "First Event",
-    srv.cause_of_death AS "Cause of Death",
-    std.dbgap_accession AS "dbGaP Accession"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
-WHERE 
-    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS' AND srv.survival_id IS NOT NULL
 ORDER BY 
     prt.participant_id ASC
 LIMIT 100;</t>
@@ -276,38 +206,101 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS'
 ORDER BY 
     trt.treatment_id ASC
 LIMIT 100;</t>
   </si>
+  <si>
+    <t>SELECT DISTINCT
+    prt.participant_id AS "Participant Id",
+    trr.treatment_response_id AS "Treatment Response Id",
+    trr.response AS "Response",
+    CASE 
+        WHEN trr.age_at_response = -999 THEN 'Not Reported'
+        WHEN trr.age_at_response &gt;= 1000 THEN 
+            substr(trr.age_at_response, 1, length(trr.age_at_response) - 3) || ',' || substr(trr.age_at_response, -3)
+        ELSE 
+            trr.age_at_response 
+    END AS "Age at Response",
+    trr.response_category AS "Response Category",
+    trr.response_system AS "Response System",
+    std.dbgap_accession AS "dbGaP Accession"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
+WHERE 
+    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS'
+ORDER BY 
+    prt.participant_id ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    prt.participant_id AS "Participant Id",
+    srv.survival_id AS "Survival Id",
+    srv.last_known_survival_status AS "Last Known Survival Status",
+    CASE 
+    WHEN srv.age_at_last_known_survival_status = -999 THEN 'Not Reported'
+    WHEN srv.age_at_last_known_survival_status &gt;= 1000 THEN 
+        substr(srv.age_at_last_known_survival_status, 1, length(srv.age_at_last_known_survival_status) - 3) || ',' || substr(srv.age_at_last_known_survival_status, -3)
+    ELSE 
+        srv.age_at_last_known_survival_status 
+END AS "Age at Last Known Survival Status",
+    srv.first_event AS "First Event",
+    srv.cause_of_death AS "Cause of Death",
+    std.dbgap_accession AS "dbGaP Accession"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
+WHERE 
+    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS' AND srv.survival_id IS NOT NULL
+ORDER BY 
+    prt.participant_id ASC
+LIMIT 100;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -360,14 +353,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -693,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -761,8 +751,8 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -771,7 +761,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -780,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -792,7 +782,7 @@
       <c r="C9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/InputFiles/C3DC/TC04_C3DC_phs000466_AnatomicSite-C649KidneyNOS.xlsx
+++ b/InputFiles/C3DC/TC04_C3DC_phs000466_AnatomicSite-C649KidneyNOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/07-15-2025/Commons_Automation/InputFiles/C3DC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/11-05-2025/Commons_Automation/InputFiles/C3DC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADB6EEE-C845-4F4B-84DB-1D2F64366481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367DC9F8-A30E-AE4D-98DA-073882303505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="-2240" windowWidth="30240" windowHeight="24500" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="35840" yWindow="-2140" windowWidth="30240" windowHeight="24500" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,17 +84,23 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.study_id = prt."study.study_id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
-LEFT JOIN 
-    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
-LEFT JOIN 
-    df_survival srv ON prt.participant_id = srv."participant.participant_id"
-LEFT JOIN 
-    df_reference_files rfs ON std.study_id = rfs."study.study_id"
+    df_participant prt 
+        ON 1=1   -- participants not directly linked to studies
+LEFT JOIN 
+    df_diagnoses dgn 
+        ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_treatments trt 
+        ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr 
+        ON prt.id = trr."participant.id"
+LEFT JOIN 
+    df_survival srv 
+        ON prt.id = srv."participant.id"
+LEFT JOIN 
+    df_genetic_analyses ga 
+        ON prt.id = ga."participant.id"
 WHERE 
    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS';</t>
   </si>
@@ -105,45 +111,25 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.study_id = prt."study.study_id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
-LEFT JOIN 
-    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
-LEFT JOIN 
-    df_survival srv ON prt.participant_id = srv."participant.participant_id"
-LEFT JOIN 
-    df_reference_files rfs ON std.study_id = rfs."study.study_id"
+    df_participant prt 
+        ON 1=1   -- participants not directly linked to studies
+LEFT JOIN 
+    df_diagnoses dgn 
+        ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_treatments trt 
+        ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr 
+        ON prt.id = trr."participant.id"
+LEFT JOIN 
+    df_survival srv 
+        ON prt.id = srv."participant.id"
+LEFT JOIN 
+    df_genetic_analyses ga 
+        ON prt.id = ga."participant.id"
 WHERE 
     std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS'</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    prt.participant_id AS "Participant Id",
-    prt.race AS "Race",
-    prt.sex_at_birth AS "Sex at Birth",
-    std.dbgap_accession AS "dbGaP Accession"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.study_id = prt."study.study_id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
-LEFT JOIN 
-    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
-LEFT JOIN 
-    df_survival srv ON prt.participant_id = srv."participant.participant_id"
-LEFT JOIN 
-    df_reference_files rfs ON std.study_id = rfs."study.study_id"
-WHERE 
-    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS'
-ORDER BY 
-    prt.participant_id ASC
-LIMIT 100;</t>
   </si>
   <si>
     <t>SELECT DISTINCT
@@ -165,17 +151,23 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.study_id = prt."study.study_id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
-LEFT JOIN 
-    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
-LEFT JOIN 
-    df_survival srv ON prt.participant_id = srv."participant.participant_id"
-LEFT JOIN 
-    df_reference_files rfs ON std.study_id = rfs."study.study_id"
+    df_participant prt 
+        ON 1=1   -- participants not directly linked to studies
+LEFT JOIN 
+    df_diagnoses dgn 
+        ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_treatments trt 
+        ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr 
+        ON prt.id = trr."participant.id"
+LEFT JOIN 
+    df_survival srv 
+        ON prt.id = srv."participant.id"
+LEFT JOIN 
+    df_genetic_analyses ga 
+        ON prt.id = ga."participant.id"
 WHERE 
     std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS' AND dgn.diagnosis_id IS NOT NULL
 ORDER BY 
@@ -206,17 +198,23 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.study_id = prt."study.study_id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
-LEFT JOIN 
-    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
-LEFT JOIN 
-    df_survival srv ON prt.participant_id = srv."participant.participant_id"
-LEFT JOIN 
-    df_reference_files rfs ON std.study_id = rfs."study.study_id"
+    df_participant prt 
+        ON 1=1   -- participants not directly linked to studies
+LEFT JOIN 
+    df_diagnoses dgn 
+        ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_treatments trt 
+        ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr 
+        ON prt.id = trr."participant.id"
+LEFT JOIN 
+    df_survival srv 
+        ON prt.id = srv."participant.id"
+LEFT JOIN 
+    df_genetic_analyses ga 
+        ON prt.id = ga."participant.id"
 WHERE 
     std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS'
 ORDER BY 
@@ -241,17 +239,23 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.study_id = prt."study.study_id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
-LEFT JOIN 
-    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
-LEFT JOIN 
-    df_survival srv ON prt.participant_id = srv."participant.participant_id"
-LEFT JOIN 
-    df_reference_files rfs ON std.study_id = rfs."study.study_id"
+    df_participant prt 
+        ON 1=1   -- participants not directly linked to studies
+LEFT JOIN 
+    df_diagnoses dgn 
+        ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_treatments trt 
+        ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr 
+        ON prt.id = trr."participant.id"
+LEFT JOIN 
+    df_survival srv 
+        ON prt.id = srv."participant.id"
+LEFT JOIN 
+    df_genetic_analyses ga 
+        ON prt.id = ga."participant.id"
 WHERE 
     std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS'
 ORDER BY 
@@ -276,19 +280,57 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.study_id = prt."study.study_id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
-LEFT JOIN 
-    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
-LEFT JOIN 
-    df_survival srv ON prt.participant_id = srv."participant.participant_id"
-LEFT JOIN 
-    df_reference_files rfs ON std.study_id = rfs."study.study_id"
+    df_participant prt 
+        ON 1=1   -- participants not directly linked to studies
+LEFT JOIN 
+    df_diagnoses dgn 
+        ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_treatments trt 
+        ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr 
+        ON prt.id = trr."participant.id"
+LEFT JOIN 
+    df_survival srv 
+        ON prt.id = srv."participant.id"
+LEFT JOIN 
+    df_genetic_analyses ga 
+        ON prt.id = ga."participant.id"
 WHERE 
     std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS' AND srv.survival_id IS NOT NULL
+ORDER BY 
+    prt.participant_id ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    prt.participant_id AS "Participant Id",
+    REPLACE(prt.race, ';', ', ') AS "Race",
+    prt.sex_at_birth AS "Sex at Birth",
+    std.dbgap_accession AS "dbGaP Accession"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt 
+        ON 1=1   -- participants not directly linked to studies
+LEFT JOIN 
+    df_diagnoses dgn 
+        ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_treatments trt 
+        ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr 
+        ON prt.id = trr."participant.id"
+LEFT JOIN 
+    df_survival srv 
+        ON prt.id = srv."participant.id"
+LEFT JOIN 
+    df_genetic_analyses ga 
+        ON prt.id = ga."participant.id"
+WHERE 
+    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS'
 ORDER BY 
     prt.participant_id ASC
 LIMIT 100;</t>
@@ -683,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -735,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
@@ -743,7 +785,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -752,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -761,7 +803,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -770,7 +812,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2"/>
     </row>

--- a/InputFiles/C3DC/TC04_C3DC_phs000466_AnatomicSite-C649KidneyNOS.xlsx
+++ b/InputFiles/C3DC/TC04_C3DC_phs000466_AnatomicSite-C649KidneyNOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/11-05-2025/Commons_Automation/InputFiles/C3DC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\C3DC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367DC9F8-A30E-AE4D-98DA-073882303505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD9839A-4335-46E3-B779-4B2753F5CA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="-2140" windowWidth="30240" windowHeight="24500" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="41835" yWindow="0" windowWidth="14985" windowHeight="15480" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>WebExcel</t>
   </si>
@@ -71,10 +71,40 @@
     <t>TreatmentRespTab</t>
   </si>
   <si>
+    <t>GeneticAnalysisTab</t>
+  </si>
+  <si>
+    <t>TC04_C3DC_phs000466_AnatomicSite-C649KidneyNOS_TSVData.xlsx</t>
+  </si>
+  <si>
     <t>TC04_C3DC_phs000466_AnatomicSite-C649KidneyNOS_WebData.xlsx</t>
   </si>
   <si>
-    <t>TC04_C3DC_phs000466_AnatomicSite-C649KidneyNOS_TSVData.xlsx</t>
+    <t>SELECT DISTINCT
+     std.dbgap_accession AS "dbGaP Accession",
+     std.study_name AS "Study Name"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt 
+        ON 1=1   -- participants not directly linked to studies
+LEFT JOIN 
+    df_diagnoses dgn 
+        ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_treatments trt 
+        ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr 
+        ON prt.id = trr."participant.id"
+LEFT JOIN 
+    df_survival srv 
+        ON prt.id = srv."participant.id"
+LEFT JOIN 
+    df_genetic_analyses ga 
+        ON prt.id = ga."participant.id"
+WHERE 
+    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS';</t>
   </si>
   <si>
     <t>SELECT 
@@ -102,44 +132,40 @@
     df_genetic_analyses ga 
         ON prt.id = ga."participant.id"
 WHERE 
-   std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS';</t>
+    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS';</t>
   </si>
   <si>
     <t>SELECT DISTINCT
-     std.dbgap_accession AS "dbGaP Accession",
-     std.study_name AS "Study Name"
+    prt.participant_id AS "Participant Id",
+    REPLACE(prt.race, ';', ', ') AS "Race",
+    prt.sex_at_birth AS "Sex at Birth",
+    std.dbgap_accession AS "dbGaP Accession"
 FROM 
     df_study std
 LEFT JOIN 
     df_participant prt 
         ON 1=1   -- participants not directly linked to studies
 LEFT JOIN 
-    df_diagnoses dgn 
-        ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt 
-        ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr 
-        ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv 
-        ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_genetic_analyses ga 
-        ON prt.id = ga."participant.id"
+    df_diagnoses dgn ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_treatments trt ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.id = trr."participant.id"
+LEFT JOIN 
+    df_survival srv ON prt.id = srv."participant.id"
+LEFT JOIN 
+    df_genetic_analyses ga ON prt.id = ga."participant.id"
 WHERE 
-    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS'</t>
+    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS'
+ORDER BY 
+    prt.participant_id ASC
+LIMIT 100;</t>
   </si>
   <si>
     <t>SELECT DISTINCT
     prt.participant_id AS "Participant Id",
     dgn.diagnosis_id AS "Diagnosis Id",
     dgn.diagnosis AS "Diagnosis",
-    dgn.diagnosis_classification_system AS "Diagnosis Classification System",
-    dgn.diagnosis_basis AS "Diagnosis Basis",
-    dgn.tumor_classification AS "Tumor Classification",
-    dgn.anatomic_site AS "Anatomic Site",
     CASE 
     WHEN dgn.age_at_diagnosis = -999 THEN 'Not Reported'
     WHEN dgn.age_at_diagnosis &gt;= 1000 THEN 
@@ -147,31 +173,58 @@
     ELSE 
         dgn.age_at_diagnosis 
 END AS "Age at Diagnosis (days)",
+    dgn.anatomic_site AS "Anatomic Site",
+    dgn.diagnosis_classification_system AS "Diagnosis Classification System",
     std.dbgap_accession AS "dbGaP Accession"
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt 
-        ON 1=1   -- participants not directly linked to studies
-LEFT JOIN 
-    df_diagnoses dgn 
-        ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt 
-        ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr 
-        ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv 
-        ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_genetic_analyses ga 
-        ON prt.id = ga."participant.id"
+    df_participant prt ON 1=1
+LEFT JOIN 
+    df_diagnoses dgn ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_treatments trt ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.id = trr."participant.id"
+LEFT JOIN 
+    df_survival srv ON prt.id = srv."participant.id"
+LEFT JOIN 
+    df_genetic_analyses ga ON prt.id = ga."participant.id"
 WHERE 
     std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS' AND dgn.diagnosis_id IS NOT NULL
 ORDER BY 
     prt.participant_id ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    prt.participant_id AS "Participant Id",
+    ga.genetic_analysis_id AS "Genetic Analysis ID",
+    ga.gene_symbol AS "Gene Symbol",
+    ga.status AS "Status",
+    ga.reported_significance AS "Reported Significance",
+    ga.reported_significance_system AS "Reported Significance System",
+    ga.hgvs_genome AS "HGVS Genome",
+    ga.alteration AS "Alteration",
+    std.dbgap_accession AS "dbGaP Accession"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON 1=1
+LEFT JOIN 
+    df_diagnoses dgn ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_treatments trt ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.id = trr."participant.id"
+LEFT JOIN 
+    df_survival srv ON prt.id = srv."participant.id"
+LEFT JOIN 
+    df_genetic_analyses ga ON prt.id = ga."participant.id"
+WHERE 
+     std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS' AND dgn.diagnosis_id IS NOT NULL
+ORDER BY 
+    ga.genetic_analysis_id ASC
 LIMIT 100;</t>
   </si>
   <si>
@@ -198,25 +251,19 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt 
-        ON 1=1   -- participants not directly linked to studies
-LEFT JOIN 
-    df_diagnoses dgn 
-        ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt 
-        ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr 
-        ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv 
-        ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_genetic_analyses ga 
-        ON prt.id = ga."participant.id"
-WHERE 
-    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS'
+    df_participant prt ON 1=1   -- participants not directly linked to studies
+LEFT JOIN 
+    df_diagnoses dgn ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_treatments trt ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.id = trr."participant.id"
+LEFT JOIN 
+    df_survival srv ON prt.id = srv."participant.id"
+LEFT JOIN 
+    df_genetic_analyses ga ON prt.id = ga."participant.id"
+WHERE  
+    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS' and trt.treatment_id is not NULL
 ORDER BY 
     trt.treatment_id ASC
 LIMIT 100;</t>
@@ -233,31 +280,23 @@
         ELSE 
             trr.age_at_response 
     END AS "Age at Response",
-    trr.response_category AS "Response Category",
-    trr.response_system AS "Response System",
     std.dbgap_accession AS "dbGaP Accession"
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt 
-        ON 1=1   -- participants not directly linked to studies
-LEFT JOIN 
-    df_diagnoses dgn 
-        ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt 
-        ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr 
-        ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv 
-        ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_genetic_analyses ga 
-        ON prt.id = ga."participant.id"
-WHERE 
-    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS'
+    df_participant prt ON 1=1   -- participants not directly linked to studies
+LEFT JOIN 
+    df_diagnoses dgn ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_treatments trt ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.id = trr."participant.id"
+LEFT JOIN 
+    df_survival srv ON prt.id = srv."participant.id"
+LEFT JOIN 
+    df_genetic_analyses ga ON prt.id = ga."participant.id"
+WHERE
+    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS' and trr.treatment_response_id is not NULL
 ORDER BY 
     prt.participant_id ASC
 LIMIT 100;</t>
@@ -274,65 +313,25 @@
     ELSE 
         srv.age_at_last_known_survival_status 
 END AS "Age at Last Known Survival Status",
-    srv.first_event AS "First Event",
-    srv.cause_of_death AS "Cause of Death",
     std.dbgap_accession AS "dbGaP Accession"
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt 
-        ON 1=1   -- participants not directly linked to studies
-LEFT JOIN 
-    df_diagnoses dgn 
-        ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt 
-        ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr 
-        ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv 
-        ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_genetic_analyses ga 
-        ON prt.id = ga."participant.id"
-WHERE 
+    df_participant prt ON 1=1   -- participants not directly linked to studies
+LEFT JOIN 
+    df_diagnoses dgn ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_treatments trt ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.id = trr."participant.id"
+LEFT JOIN 
+    df_survival srv ON prt.id = srv."participant.id"
+LEFT JOIN 
+    df_genetic_analyses ga ON prt.id = ga."participant.id"
+WHERE
     std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS' AND srv.survival_id IS NOT NULL
 ORDER BY 
-    prt.participant_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    prt.participant_id AS "Participant Id",
-    REPLACE(prt.race, ';', ', ') AS "Race",
-    prt.sex_at_birth AS "Sex at Birth",
-    std.dbgap_accession AS "dbGaP Accession"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt 
-        ON 1=1   -- participants not directly linked to studies
-LEFT JOIN 
-    df_diagnoses dgn 
-        ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt 
-        ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr 
-        ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv 
-        ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_genetic_analyses ga 
-        ON prt.id = ga."participant.id"
-WHERE 
-    std.dbgap_accession = 'phs000466' AND dgn.anatomic_site = 'C64.9 : Kidney, NOS'
-ORDER BY 
-    prt.participant_id ASC
+   srv.survival_id ASC
 LIMIT 100;</t>
   </si>
 </sst>
@@ -723,22 +722,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="75.83203125" customWidth="1"/>
-    <col min="3" max="3" width="60.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.77734375" customWidth="1"/>
+    <col min="3" max="3" width="60.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -755,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="297" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -763,65 +762,74 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="372" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="372" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
